--- a/3b_cta_engagement_analysis.xlsx
+++ b/3b_cta_engagement_analysis.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielbarrera/Documents/GitHub/DataProject/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CCA025-7FAE-424D-AC8D-66DAD29E0110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="CTA Engagement" sheetId="1" r:id="rId1"/>
     <sheet name="Normality Test" sheetId="2" r:id="rId2"/>
     <sheet name="Mann-Whitney Test" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -78,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,21 +136,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -194,7 +180,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -228,7 +214,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -263,10 +248,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,14 +423,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,21 +444,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2769.0562770562769</v>
+        <v>2769.056277056277</v>
       </c>
       <c r="C2">
-        <v>47.341991341991339</v>
+        <v>47.34199134199134</v>
       </c>
       <c r="D2">
-        <v>495.06493506493513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>495.0649350649351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -482,10 +466,10 @@
         <v>3247.854487179487</v>
       </c>
       <c r="C3">
-        <v>72.003205128205124</v>
+        <v>72.00320512820512</v>
       </c>
       <c r="D3">
-        <v>677.83333333333337</v>
+        <v>677.8333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -494,21 +478,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -522,7 +499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -530,13 +507,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>7.7742287149573958E-18</v>
+        <v>7.774228714957396E-18</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -544,13 +521,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>2.8758102492149542E-63</v>
+        <v>2.875810249214954E-63</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -564,7 +541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -578,7 +555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -586,13 +563,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>5.7558130702809803E-30</v>
+        <v>5.75581307028098E-30</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -612,19 +589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -638,7 +610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -646,13 +618,13 @@
         <v>178382.5</v>
       </c>
       <c r="C2">
-        <v>0.80648411462130565</v>
+        <v>0.8064841146213056</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -660,13 +632,13 @@
         <v>154935</v>
       </c>
       <c r="C3">
-        <v>5.7827221594650537E-4</v>
+        <v>0.0005782722159465054</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -674,7 +646,7 @@
         <v>176901.5</v>
       </c>
       <c r="C4">
-        <v>0.65466403967227726</v>
+        <v>0.6546640396722773</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
